--- a/notebooks/Prophet/predictions_skr.xlsx
+++ b/notebooks/Prophet/predictions_skr.xlsx
@@ -462,11 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.169</v>
+      </c>
       <c r="D2" t="n">
-        <v>1.068657219992357</v>
+        <v>1.164095975756102</v>
       </c>
     </row>
     <row r="3">
@@ -476,11 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.123</v>
+      </c>
       <c r="D3" t="n">
-        <v>0.9973140148963833</v>
+        <v>1.112022390544905</v>
       </c>
     </row>
     <row r="4">
@@ -490,11 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.196</v>
+      </c>
       <c r="D4" t="n">
-        <v>1.131091192232967</v>
+        <v>1.204663539552913</v>
       </c>
     </row>
     <row r="5">
@@ -504,11 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.19</v>
+      </c>
       <c r="D5" t="n">
-        <v>1.018398161065463</v>
+        <v>1.151042390642169</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.156</v>
+      </c>
       <c r="D6" t="n">
-        <v>1.015260439910422</v>
+        <v>1.144018266845245</v>
       </c>
     </row>
     <row r="7">
@@ -532,11 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.147</v>
+      </c>
       <c r="D7" t="n">
-        <v>0.9111952072491598</v>
+        <v>1.071368635344126</v>
       </c>
     </row>
     <row r="8">
@@ -546,11 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.232</v>
+      </c>
       <c r="D8" t="n">
-        <v>1.125341872190658</v>
+        <v>1.192393069132966</v>
       </c>
     </row>
     <row r="9">
@@ -560,11 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.222</v>
+      </c>
       <c r="D9" t="n">
-        <v>1.064414987852684</v>
+        <v>1.153609903499952</v>
       </c>
     </row>
     <row r="10">
@@ -574,11 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.367</v>
+      </c>
       <c r="D10" t="n">
-        <v>1.201570594675902</v>
+        <v>1.299772707977096</v>
       </c>
     </row>
     <row r="11">
@@ -588,11 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.346</v>
+      </c>
       <c r="D11" t="n">
-        <v>1.154329096687635</v>
+        <v>1.252393556611353</v>
       </c>
     </row>
     <row r="12">
@@ -602,11 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.336</v>
+      </c>
       <c r="D12" t="n">
-        <v>1.174496183449135</v>
+        <v>1.272504560234131</v>
       </c>
     </row>
     <row r="13">
@@ -616,11 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.339</v>
+      </c>
       <c r="D13" t="n">
-        <v>1.06961064168747</v>
+        <v>1.212016608235581</v>
       </c>
     </row>
     <row r="14">
@@ -630,11 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.523</v>
+      </c>
       <c r="D14" t="n">
-        <v>1.449054660770236</v>
+        <v>1.543211417427122</v>
       </c>
     </row>
     <row r="15">
@@ -644,11 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.552</v>
+      </c>
       <c r="D15" t="n">
-        <v>1.329948429515557</v>
+        <v>1.489761308898554</v>
       </c>
     </row>
     <row r="16">
@@ -658,11 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.29</v>
+      </c>
       <c r="D16" t="n">
-        <v>1.154051137219734</v>
+        <v>1.247821533710129</v>
       </c>
     </row>
     <row r="17">
@@ -672,11 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.262</v>
+      </c>
       <c r="D17" t="n">
-        <v>1.061887467258572</v>
+        <v>1.190939228656099</v>
       </c>
     </row>
     <row r="18">
@@ -686,11 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.203</v>
+      </c>
       <c r="D18" t="n">
-        <v>1.101090483769627</v>
+        <v>1.202626024421859</v>
       </c>
     </row>
     <row r="19">
@@ -700,11 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.233</v>
+      </c>
       <c r="D19" t="n">
-        <v>0.9990215074375237</v>
+        <v>1.141891845185491</v>
       </c>
     </row>
     <row r="20">
@@ -714,11 +750,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.329</v>
+      </c>
       <c r="D20" t="n">
-        <v>1.159226238607258</v>
+        <v>1.227705067421618</v>
       </c>
     </row>
     <row r="21">
@@ -728,11 +766,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.352</v>
+      </c>
       <c r="D21" t="n">
-        <v>1.063932305900483</v>
+        <v>1.182758235380278</v>
       </c>
     </row>
     <row r="22">
@@ -742,11 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.212</v>
+      </c>
       <c r="D22" t="n">
-        <v>1.095072175288607</v>
+        <v>1.175513280386262</v>
       </c>
     </row>
     <row r="23">
@@ -756,11 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.171</v>
+      </c>
       <c r="D23" t="n">
-        <v>0.9880920309268252</v>
+        <v>1.121238425251009</v>
       </c>
     </row>
     <row r="24">
@@ -770,11 +814,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.142</v>
+      </c>
       <c r="D24" t="n">
-        <v>1.129388692615389</v>
+        <v>1.204286644223733</v>
       </c>
     </row>
     <row r="25">
@@ -784,11 +830,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.104</v>
+      </c>
       <c r="D25" t="n">
-        <v>0.9960617923982507</v>
+        <v>1.145913269280019</v>
       </c>
     </row>
     <row r="26">
@@ -798,11 +846,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.08</v>
+      </c>
       <c r="D26" t="n">
-        <v>0.9601891436219179</v>
+        <v>1.077103442736631</v>
       </c>
     </row>
     <row r="27">
@@ -812,11 +862,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.033</v>
+      </c>
       <c r="D27" t="n">
-        <v>0.8758648485936369</v>
+        <v>1.014980112098918</v>
       </c>
     </row>
     <row r="28">
@@ -826,11 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.223</v>
+      </c>
       <c r="D28" t="n">
-        <v>1.146226484306233</v>
+        <v>1.204356512011886</v>
       </c>
     </row>
     <row r="29">
@@ -840,11 +894,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.207</v>
+      </c>
       <c r="D29" t="n">
-        <v>1.082079739718537</v>
+        <v>1.167988198842583</v>
       </c>
     </row>
     <row r="30">
@@ -854,11 +910,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.296</v>
+      </c>
       <c r="D30" t="n">
-        <v>1.177180520970233</v>
+        <v>1.268514337128076</v>
       </c>
     </row>
     <row r="31">
@@ -868,11 +926,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.278</v>
+      </c>
       <c r="D31" t="n">
-        <v>1.072901097683798</v>
+        <v>1.211711610759217</v>
       </c>
     </row>
     <row r="32">
@@ -882,11 +942,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.145</v>
+      </c>
       <c r="D32" t="n">
-        <v>1.026193467574565</v>
+        <v>1.105324395926003</v>
       </c>
     </row>
     <row r="33">
@@ -896,11 +958,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.179</v>
+      </c>
       <c r="D33" t="n">
-        <v>0.9254955375480074</v>
+        <v>1.052577864456938</v>
       </c>
     </row>
     <row r="34">
@@ -910,11 +974,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.311</v>
+      </c>
       <c r="D34" t="n">
-        <v>1.207881045890686</v>
+        <v>1.292600053042742</v>
       </c>
     </row>
     <row r="35">
@@ -924,11 +990,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.316</v>
+      </c>
       <c r="D35" t="n">
-        <v>1.106215875809891</v>
+        <v>1.238822689774597</v>
       </c>
     </row>
     <row r="36">
@@ -938,11 +1006,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.419</v>
+      </c>
       <c r="D36" t="n">
-        <v>1.435172554358988</v>
+        <v>1.412932033993372</v>
       </c>
     </row>
     <row r="37">
@@ -952,11 +1022,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.424</v>
+      </c>
       <c r="D37" t="n">
-        <v>1.411677386570382</v>
+        <v>1.416084044130276</v>
       </c>
     </row>
     <row r="38">
@@ -966,11 +1038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.505</v>
+      </c>
       <c r="D38" t="n">
-        <v>1.578887990611788</v>
+        <v>1.61726498729616</v>
       </c>
     </row>
     <row r="39">
@@ -980,11 +1054,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.534</v>
+      </c>
       <c r="D39" t="n">
-        <v>1.521856143048242</v>
+        <v>1.590773004391617</v>
       </c>
     </row>
     <row r="40">
@@ -994,11 +1070,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.544</v>
+      </c>
       <c r="D40" t="n">
-        <v>1.604264961115876</v>
+        <v>1.506898785846014</v>
       </c>
     </row>
     <row r="41">
@@ -1008,11 +1086,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.564</v>
+      </c>
       <c r="D41" t="n">
-        <v>1.525112391210752</v>
+        <v>1.441892177246727</v>
       </c>
     </row>
     <row r="42">
@@ -1022,11 +1102,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.493</v>
+      </c>
       <c r="D42" t="n">
-        <v>1.389624401049129</v>
+        <v>1.487478114973518</v>
       </c>
     </row>
     <row r="43">
@@ -1036,11 +1118,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.459</v>
+      </c>
       <c r="D43" t="n">
-        <v>1.310803147295034</v>
+        <v>1.434148482628587</v>
       </c>
     </row>
     <row r="44">
@@ -1050,11 +1134,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.837</v>
+      </c>
       <c r="D44" t="n">
-        <v>1.954156207959926</v>
+        <v>1.955426513181158</v>
       </c>
     </row>
     <row r="45">
@@ -1064,11 +1150,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.913</v>
+      </c>
       <c r="D45" t="n">
-        <v>1.652068162609658</v>
+        <v>1.88869653222947</v>
       </c>
     </row>
     <row r="46">
@@ -1078,11 +1166,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.413</v>
+      </c>
       <c r="D46" t="n">
-        <v>1.281571315399256</v>
+        <v>1.388280012467319</v>
       </c>
     </row>
     <row r="47">
@@ -1092,11 +1182,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.391</v>
+      </c>
       <c r="D47" t="n">
-        <v>1.169452929472792</v>
+        <v>1.323392765122483</v>
       </c>
     </row>
     <row r="48">
@@ -1106,11 +1198,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.257</v>
+      </c>
       <c r="D48" t="n">
-        <v>1.147487558905695</v>
+        <v>1.255786188299022</v>
       </c>
     </row>
     <row r="49">
@@ -1120,11 +1214,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.183</v>
+      </c>
       <c r="D49" t="n">
-        <v>1.046396555392348</v>
+        <v>1.192883077228559</v>
       </c>
     </row>
     <row r="50">
@@ -1134,11 +1230,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.871</v>
+      </c>
       <c r="D50" t="n">
-        <v>0.7651980070491576</v>
+        <v>0.8614909194349734</v>
       </c>
     </row>
     <row r="51">
@@ -1148,11 +1246,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.88</v>
+      </c>
       <c r="D51" t="n">
-        <v>0.6921244752657041</v>
+        <v>0.8103311558182715</v>
       </c>
     </row>
     <row r="52">
@@ -1162,11 +1262,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.47</v>
+      </c>
       <c r="D52" t="n">
-        <v>1.413057094988759</v>
+        <v>1.45934188688433</v>
       </c>
     </row>
     <row r="53">
@@ -1176,11 +1278,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.451</v>
+      </c>
       <c r="D53" t="n">
-        <v>1.346898652187462</v>
+        <v>1.42749834767805</v>
       </c>
     </row>
     <row r="54">
@@ -1190,11 +1294,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.316</v>
+      </c>
       <c r="D54" t="n">
-        <v>1.157077667274323</v>
+        <v>1.275501666081162</v>
       </c>
     </row>
     <row r="55">
@@ -1204,11 +1310,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.257</v>
+      </c>
       <c r="D55" t="n">
-        <v>1.056323586214475</v>
+        <v>1.208382366285686</v>
       </c>
     </row>
     <row r="56">
@@ -1218,11 +1326,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.332</v>
+      </c>
       <c r="D56" t="n">
-        <v>1.340388719636884</v>
+        <v>1.404501746352975</v>
       </c>
     </row>
     <row r="57">
@@ -1232,11 +1342,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.305</v>
+      </c>
       <c r="D57" t="n">
-        <v>1.262236523861266</v>
+        <v>1.36346126393</v>
       </c>
     </row>
     <row r="58">
@@ -1246,11 +1358,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.278</v>
+      </c>
       <c r="D58" t="n">
-        <v>1.184402393002196</v>
+        <v>1.249452904851215</v>
       </c>
     </row>
     <row r="59">
@@ -1260,11 +1374,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.257</v>
+      </c>
       <c r="D59" t="n">
-        <v>1.101882536822524</v>
+        <v>1.20671119610886</v>
       </c>
     </row>
     <row r="60">
@@ -1274,11 +1390,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.31</v>
+      </c>
       <c r="D60" t="n">
-        <v>1.078335174604175</v>
+        <v>1.193700072401145</v>
       </c>
     </row>
     <row r="61">
@@ -1288,11 +1406,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.346</v>
+      </c>
       <c r="D61" t="n">
-        <v>1.022855820738313</v>
+        <v>1.136925343276596</v>
       </c>
     </row>
     <row r="62">
@@ -1302,11 +1422,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C62" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.432</v>
+      </c>
       <c r="D62" t="n">
-        <v>1.357649208763166</v>
+        <v>1.427248539459092</v>
       </c>
     </row>
     <row r="63">
@@ -1316,11 +1438,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.443</v>
+      </c>
       <c r="D63" t="n">
-        <v>1.274551175528476</v>
+        <v>1.379984929491017</v>
       </c>
     </row>
     <row r="64">
@@ -1330,11 +1454,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.436</v>
+      </c>
       <c r="D64" t="n">
-        <v>1.589169831787232</v>
+        <v>1.48038171986446</v>
       </c>
     </row>
     <row r="65">
@@ -1344,11 +1470,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.419</v>
+      </c>
       <c r="D65" t="n">
-        <v>1.544497034903267</v>
+        <v>1.44954783663304</v>
       </c>
     </row>
     <row r="66">
@@ -1358,11 +1486,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.521</v>
+      </c>
       <c r="D66" t="n">
-        <v>1.47550297324387</v>
+        <v>1.542549523608448</v>
       </c>
     </row>
     <row r="67">
@@ -1372,11 +1502,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.532</v>
+      </c>
       <c r="D67" t="n">
-        <v>1.421254311556376</v>
+        <v>1.505929268343715</v>
       </c>
     </row>
     <row r="68">
@@ -1386,11 +1518,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.627</v>
+      </c>
       <c r="D68" t="n">
-        <v>1.561870215524327</v>
+        <v>1.614787846627999</v>
       </c>
     </row>
     <row r="69">
@@ -1400,11 +1534,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.635</v>
+      </c>
       <c r="D69" t="n">
-        <v>1.462278675987924</v>
+        <v>1.572168809288093</v>
       </c>
     </row>
     <row r="70">
@@ -1414,11 +1550,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C70" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.139</v>
+      </c>
       <c r="D70" t="n">
-        <v>0.9909345880047182</v>
+        <v>1.11488798851267</v>
       </c>
     </row>
     <row r="71">
@@ -1428,11 +1566,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C71" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.119</v>
+      </c>
       <c r="D71" t="n">
-        <v>0.9337460175374513</v>
+        <v>1.055549170300353</v>
       </c>
     </row>
     <row r="72">
@@ -1442,11 +1582,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C72" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.249</v>
+      </c>
       <c r="D72" t="n">
-        <v>1.134662705705208</v>
+        <v>1.224553577654896</v>
       </c>
     </row>
     <row r="73">
@@ -1456,11 +1598,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C73" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.272</v>
+      </c>
       <c r="D73" t="n">
-        <v>1.063737080879061</v>
+        <v>1.175184641782466</v>
       </c>
     </row>
     <row r="74">
@@ -1470,11 +1614,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.017</v>
+      </c>
       <c r="D74" t="n">
-        <v>0.6865745093458111</v>
+        <v>0.8893848166323768</v>
       </c>
     </row>
     <row r="75">
@@ -1484,11 +1630,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.976</v>
+      </c>
       <c r="D75" t="n">
-        <v>0.5577610328219477</v>
+        <v>0.7822232016665315</v>
       </c>
     </row>
     <row r="76">
@@ -1498,11 +1646,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.734</v>
+      </c>
       <c r="D76" t="n">
-        <v>1.712994289097972</v>
+        <v>1.727670045795692</v>
       </c>
     </row>
     <row r="77">
@@ -1512,11 +1662,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C77" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.745</v>
+      </c>
       <c r="D77" t="n">
-        <v>1.63260276172386</v>
+        <v>1.69455121612346</v>
       </c>
     </row>
     <row r="78">
@@ -1526,11 +1678,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C78" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.827</v>
+      </c>
       <c r="D78" t="n">
-        <v>1.739007747844207</v>
+        <v>1.856114567315158</v>
       </c>
     </row>
     <row r="79">
@@ -1540,11 +1694,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.806</v>
+      </c>
       <c r="D79" t="n">
-        <v>1.788875122610913</v>
+        <v>1.821921376034575</v>
       </c>
     </row>
     <row r="80">
@@ -1554,11 +1710,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.515</v>
+      </c>
       <c r="D80" t="n">
-        <v>1.333492074230685</v>
+        <v>1.419870121204928</v>
       </c>
     </row>
     <row r="81">
@@ -1568,11 +1726,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.526</v>
+      </c>
       <c r="D81" t="n">
-        <v>1.295949057032965</v>
+        <v>1.378586038500122</v>
       </c>
     </row>
     <row r="82">
@@ -1582,11 +1742,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C82" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.3</v>
+      </c>
       <c r="D82" t="n">
-        <v>1.278250188613701</v>
+        <v>1.292515870457321</v>
       </c>
     </row>
     <row r="83">
@@ -1596,11 +1758,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C83" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.34</v>
+      </c>
       <c r="D83" t="n">
-        <v>1.151883541945076</v>
+        <v>1.257184799025387</v>
       </c>
     </row>
     <row r="84">
@@ -1610,11 +1774,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C84" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.587</v>
+      </c>
       <c r="D84" t="n">
-        <v>1.549927081124221</v>
+        <v>1.604575668764747</v>
       </c>
     </row>
     <row r="85">
@@ -1624,11 +1790,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C85" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.52</v>
+      </c>
       <c r="D85" t="n">
-        <v>1.498130975538996</v>
+        <v>1.567689930697032</v>
       </c>
     </row>
     <row r="86">
@@ -1638,11 +1806,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C86" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.744</v>
+      </c>
       <c r="D86" t="n">
-        <v>2.326523685857298</v>
+        <v>2.482590192316334</v>
       </c>
     </row>
     <row r="87">
@@ -1652,11 +1822,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C87" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.66</v>
+      </c>
       <c r="D87" t="n">
-        <v>2.349045163357121</v>
+        <v>2.439450448325189</v>
       </c>
     </row>
     <row r="88">
@@ -1666,11 +1838,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C88" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.289</v>
+      </c>
       <c r="D88" t="n">
-        <v>1.176028556116533</v>
+        <v>1.256879709540067</v>
       </c>
     </row>
     <row r="89">
@@ -1680,11 +1854,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C89" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.297</v>
+      </c>
       <c r="D89" t="n">
-        <v>1.094656298592977</v>
+        <v>1.209112357795406</v>
       </c>
     </row>
     <row r="90">
@@ -1694,11 +1870,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C90" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.406</v>
+      </c>
       <c r="D90" t="n">
-        <v>1.224486289321898</v>
+        <v>1.359549126934896</v>
       </c>
     </row>
     <row r="91">
@@ -1708,11 +1886,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C91" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.414</v>
+      </c>
       <c r="D91" t="n">
-        <v>1.134085309815487</v>
+        <v>1.287549868279034</v>
       </c>
     </row>
     <row r="92">
@@ -1722,11 +1902,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.409</v>
+      </c>
       <c r="D92" t="n">
-        <v>1.222773486814087</v>
+        <v>1.359637105753652</v>
       </c>
     </row>
     <row r="93">
@@ -1736,11 +1918,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C93" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.381</v>
+      </c>
       <c r="D93" t="n">
-        <v>1.099325943754929</v>
+        <v>1.280979898163771</v>
       </c>
     </row>
     <row r="94">
@@ -1750,11 +1934,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C94" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.031</v>
+      </c>
       <c r="D94" t="n">
-        <v>1.007173089100942</v>
+        <v>1.074665700624384</v>
       </c>
     </row>
     <row r="95">
@@ -1764,11 +1950,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C95" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.047</v>
+      </c>
       <c r="D95" t="n">
-        <v>0.9324766831431742</v>
+        <v>1.032258125224074</v>
       </c>
     </row>
     <row r="96">
@@ -1778,11 +1966,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C96" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.429</v>
+      </c>
       <c r="D96" t="n">
-        <v>1.331145867190821</v>
+        <v>1.419347003092112</v>
       </c>
     </row>
     <row r="97">
@@ -1792,11 +1982,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C97" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.454</v>
+      </c>
       <c r="D97" t="n">
-        <v>1.23954394935714</v>
+        <v>1.365581364857339</v>
       </c>
     </row>
     <row r="98">
@@ -1806,11 +1998,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C98" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.434</v>
+      </c>
       <c r="D98" t="n">
-        <v>1.234046032966494</v>
+        <v>1.379460091435454</v>
       </c>
     </row>
     <row r="99">
@@ -1820,11 +2014,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C99" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.399</v>
+      </c>
       <c r="D99" t="n">
-        <v>1.11579115965448</v>
+        <v>1.298378201257472</v>
       </c>
     </row>
     <row r="100">
@@ -1834,11 +2030,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C100" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.423</v>
+      </c>
       <c r="D100" t="n">
-        <v>1.26989628561066</v>
+        <v>1.387304228163447</v>
       </c>
     </row>
     <row r="101">
@@ -1848,11 +2046,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.402</v>
+      </c>
       <c r="D101" t="n">
-        <v>1.171632432308086</v>
+        <v>1.321400673689396</v>
       </c>
     </row>
     <row r="102">
@@ -1862,11 +2062,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C102" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.541</v>
+      </c>
       <c r="D102" t="n">
-        <v>1.322466414790176</v>
+        <v>1.452450900670762</v>
       </c>
     </row>
     <row r="103">
@@ -1876,11 +2078,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C103" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.527</v>
+      </c>
       <c r="D103" t="n">
-        <v>1.221230811245762</v>
+        <v>1.380250126895488</v>
       </c>
     </row>
     <row r="104">
@@ -1890,11 +2094,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C104" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.5</v>
+      </c>
       <c r="D104" t="n">
-        <v>1.411480751699994</v>
+        <v>1.506730330263243</v>
       </c>
     </row>
     <row r="105">
@@ -1904,11 +2110,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C105" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.473</v>
+      </c>
       <c r="D105" t="n">
-        <v>1.30959453292266</v>
+        <v>1.448580985772373</v>
       </c>
     </row>
     <row r="106">
@@ -1918,11 +2126,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C106" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.313</v>
+      </c>
       <c r="D106" t="n">
-        <v>1.23220171354935</v>
+        <v>1.303932365232842</v>
       </c>
     </row>
     <row r="107">
@@ -1932,11 +2142,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C107" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.309</v>
+      </c>
       <c r="D107" t="n">
-        <v>1.140953964206697</v>
+        <v>1.257059722673146</v>
       </c>
     </row>
     <row r="108">
@@ -1946,11 +2158,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C108" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.464</v>
+      </c>
       <c r="D108" t="n">
-        <v>1.322232479222795</v>
+        <v>1.456687925386922</v>
       </c>
     </row>
     <row r="109">
@@ -1960,11 +2174,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C109" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.502</v>
+      </c>
       <c r="D109" t="n">
-        <v>1.218404750541279</v>
+        <v>1.381802390487375</v>
       </c>
     </row>
     <row r="110">
@@ -1974,11 +2190,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C110" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.186</v>
+      </c>
       <c r="D110" t="n">
-        <v>1.077788400685426</v>
+        <v>1.162811664919342</v>
       </c>
     </row>
     <row r="111">
@@ -1988,11 +2206,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C111" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.198</v>
+      </c>
       <c r="D111" t="n">
-        <v>1.007261822633724</v>
+        <v>1.114162857187382</v>
       </c>
     </row>
     <row r="112">
@@ -2002,11 +2222,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C112" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.33</v>
+      </c>
       <c r="D112" t="n">
-        <v>1.218544290149515</v>
+        <v>1.302727991632266</v>
       </c>
     </row>
     <row r="113">
@@ -2016,11 +2238,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C113" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.33</v>
+      </c>
       <c r="D113" t="n">
-        <v>1.13667712142995</v>
+        <v>1.252730525025444</v>
       </c>
     </row>
     <row r="114">
@@ -2030,11 +2254,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C114" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.106</v>
+      </c>
       <c r="D114" t="n">
-        <v>0.9600771438411513</v>
+        <v>1.076963557078797</v>
       </c>
     </row>
     <row r="115">
@@ -2044,11 +2270,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C115" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.103</v>
+      </c>
       <c r="D115" t="n">
-        <v>0.8759414329674308</v>
+        <v>1.013033200478479</v>
       </c>
     </row>
     <row r="116">
@@ -2058,11 +2286,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C116" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.318</v>
+      </c>
       <c r="D116" t="n">
-        <v>1.233739548721089</v>
+        <v>1.314421997408926</v>
       </c>
     </row>
     <row r="117">
@@ -2072,11 +2302,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C117" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.34</v>
+      </c>
       <c r="D117" t="n">
-        <v>1.141856801413767</v>
+        <v>1.26297315382101</v>
       </c>
     </row>
     <row r="118">
@@ -2086,11 +2318,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C118" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.684</v>
+      </c>
       <c r="D118" t="n">
-        <v>1.580559282236999</v>
+        <v>1.70520913836057</v>
       </c>
     </row>
     <row r="119">
@@ -2100,11 +2334,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C119" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.642</v>
+      </c>
       <c r="D119" t="n">
-        <v>1.531618483287675</v>
+        <v>1.648518234838988</v>
       </c>
     </row>
     <row r="120">
@@ -2114,11 +2350,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C120" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.557</v>
+      </c>
       <c r="D120" t="n">
-        <v>1.39124075543763</v>
+        <v>1.499539104207397</v>
       </c>
     </row>
     <row r="121">
@@ -2128,11 +2366,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C121" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.551</v>
+      </c>
       <c r="D121" t="n">
-        <v>1.317256572280216</v>
+        <v>1.442517231406958</v>
       </c>
     </row>
     <row r="122">
@@ -2142,11 +2382,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C122" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.723</v>
+      </c>
       <c r="D122" t="n">
-        <v>1.754159928863475</v>
+        <v>1.69209852833653</v>
       </c>
     </row>
     <row r="123">
@@ -2156,11 +2398,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C123" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.72</v>
+      </c>
       <c r="D123" t="n">
-        <v>1.712827880898642</v>
+        <v>1.673037021727622</v>
       </c>
     </row>
     <row r="124">
@@ -2170,11 +2414,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C124" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.669</v>
+      </c>
       <c r="D124" t="n">
-        <v>1.665729008938734</v>
+        <v>1.611541186882331</v>
       </c>
     </row>
     <row r="125">
@@ -2184,11 +2430,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C125" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.659</v>
+      </c>
       <c r="D125" t="n">
-        <v>1.601911666233811</v>
+        <v>1.571461602304681</v>
       </c>
     </row>
     <row r="126">
@@ -2198,11 +2446,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C126" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.916</v>
+      </c>
       <c r="D126" t="n">
-        <v>1.701147902575511</v>
+        <v>1.778212316948352</v>
       </c>
     </row>
     <row r="127">
@@ -2212,11 +2462,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C127" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.946</v>
+      </c>
       <c r="D127" t="n">
-        <v>1.641417149576025</v>
+        <v>1.735965013009687</v>
       </c>
     </row>
     <row r="128">
@@ -2226,11 +2478,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C128" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.468</v>
+      </c>
       <c r="D128" t="n">
-        <v>1.249463525542537</v>
+        <v>1.369403299160347</v>
       </c>
     </row>
     <row r="129">
@@ -2240,11 +2494,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C129" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.471</v>
+      </c>
       <c r="D129" t="n">
-        <v>1.17771853900501</v>
+        <v>1.308155529991621</v>
       </c>
     </row>
     <row r="130">
@@ -2254,11 +2510,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C130" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.07</v>
+      </c>
       <c r="D130" t="n">
-        <v>1.718751362202197</v>
+        <v>1.954826189315001</v>
       </c>
     </row>
     <row r="131">
@@ -2268,11 +2526,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C131" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.03</v>
+      </c>
       <c r="D131" t="n">
-        <v>1.619546766228894</v>
+        <v>1.842670527294036</v>
       </c>
     </row>
     <row r="132">
@@ -2282,11 +2542,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C132" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.51</v>
+      </c>
       <c r="D132" t="n">
-        <v>2.268572521608812</v>
+        <v>2.50335633550841</v>
       </c>
     </row>
     <row r="133">
@@ -2296,11 +2558,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C133" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.442</v>
+      </c>
       <c r="D133" t="n">
-        <v>2.20192364701549</v>
+        <v>2.40309900435832</v>
       </c>
     </row>
     <row r="134">
@@ -2310,11 +2574,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C134" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.541</v>
+      </c>
       <c r="D134" t="n">
-        <v>1.299628364640348</v>
+        <v>1.438577237599924</v>
       </c>
     </row>
     <row r="135">
@@ -2324,11 +2590,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C135" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.522</v>
+      </c>
       <c r="D135" t="n">
-        <v>1.217232610068847</v>
+        <v>1.368416127434268</v>
       </c>
     </row>
     <row r="136">
@@ -2338,11 +2606,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C136" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.345</v>
+      </c>
       <c r="D136" t="n">
-        <v>1.142063417098687</v>
+        <v>1.293654651952068</v>
       </c>
     </row>
     <row r="137">
@@ -2352,11 +2622,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C137" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.305</v>
+      </c>
       <c r="D137" t="n">
-        <v>1.061695279566029</v>
+        <v>1.21937129461386</v>
       </c>
     </row>
     <row r="138">
@@ -2366,11 +2638,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C138" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.434</v>
+      </c>
       <c r="D138" t="n">
-        <v>1.277548506405635</v>
+        <v>1.386473277912959</v>
       </c>
     </row>
     <row r="139">
@@ -2380,11 +2654,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C139" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.436</v>
+      </c>
       <c r="D139" t="n">
-        <v>1.205775419740166</v>
+        <v>1.329848082397768</v>
       </c>
     </row>
     <row r="140">
@@ -2394,11 +2670,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C140" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.694</v>
+      </c>
       <c r="D140" t="n">
-        <v>1.598126234214958</v>
+        <v>1.675970102060651</v>
       </c>
     </row>
     <row r="141">
@@ -2408,11 +2686,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C141" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.65</v>
+      </c>
       <c r="D141" t="n">
-        <v>1.535076409379732</v>
+        <v>1.632888261116926</v>
       </c>
     </row>
     <row r="142">
@@ -2422,11 +2702,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C142" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.264</v>
+      </c>
       <c r="D142" t="n">
-        <v>1.095477436939691</v>
+        <v>1.221110260085636</v>
       </c>
     </row>
     <row r="143">
@@ -2436,11 +2718,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C143" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.221</v>
+      </c>
       <c r="D143" t="n">
-        <v>0.9988723026751595</v>
+        <v>1.151718373496088</v>
       </c>
     </row>
     <row r="144">
@@ -2450,11 +2734,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C144" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.486</v>
+      </c>
       <c r="D144" t="n">
-        <v>1.332597965802286</v>
+        <v>1.415394150931593</v>
       </c>
     </row>
     <row r="145">
@@ -2464,11 +2750,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C145" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.492</v>
+      </c>
       <c r="D145" t="n">
-        <v>1.259368302666945</v>
+        <v>1.368324339260799</v>
       </c>
     </row>
     <row r="146">
@@ -2478,11 +2766,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C146" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.525</v>
+      </c>
       <c r="D146" t="n">
-        <v>1.27790629344078</v>
+        <v>1.408692051129171</v>
       </c>
     </row>
     <row r="147">
@@ -2492,11 +2782,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C147" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.495</v>
+      </c>
       <c r="D147" t="n">
-        <v>1.195892062515006</v>
+        <v>1.340142602104001</v>
       </c>
     </row>
     <row r="148">
@@ -2506,11 +2798,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C148" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.244</v>
+      </c>
       <c r="D148" t="n">
-        <v>1.113899974675222</v>
+        <v>1.219124541607773</v>
       </c>
     </row>
     <row r="149">
@@ -2520,11 +2814,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C149" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.189</v>
+      </c>
       <c r="D149" t="n">
-        <v>1.045495149164994</v>
+        <v>1.16490959361783</v>
       </c>
     </row>
     <row r="150">
@@ -2534,11 +2830,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C150" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.684</v>
+      </c>
       <c r="D150" t="n">
-        <v>1.625895628600455</v>
+        <v>1.732788152061696</v>
       </c>
     </row>
     <row r="151">
@@ -2548,11 +2846,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C151" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.597</v>
+      </c>
       <c r="D151" t="n">
-        <v>1.499582797354842</v>
+        <v>1.66429527917813</v>
       </c>
     </row>
     <row r="152">
@@ -2562,11 +2862,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C152" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.69</v>
+      </c>
       <c r="D152" t="n">
-        <v>1.953267055158165</v>
+        <v>1.770935174995148</v>
       </c>
     </row>
     <row r="153">
@@ -2576,11 +2878,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C153" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.619</v>
+      </c>
       <c r="D153" t="n">
-        <v>1.944267043065953</v>
+        <v>1.764402995274811</v>
       </c>
     </row>
     <row r="154">
@@ -2590,11 +2894,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C154" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.618</v>
+      </c>
       <c r="D154" t="n">
-        <v>1.572413245902887</v>
+        <v>1.609900503640127</v>
       </c>
     </row>
     <row r="155">
@@ -2604,11 +2910,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C155" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.548</v>
+      </c>
       <c r="D155" t="n">
-        <v>1.462073652428066</v>
+        <v>1.5503190227798</v>
       </c>
     </row>
     <row r="156">
@@ -2618,11 +2926,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C156" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.626</v>
+      </c>
       <c r="D156" t="n">
-        <v>1.564183822194786</v>
+        <v>1.587455268596948</v>
       </c>
     </row>
     <row r="157">
@@ -2632,11 +2942,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C157" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.666</v>
+      </c>
       <c r="D157" t="n">
-        <v>1.464657667132969</v>
+        <v>1.549888364391242</v>
       </c>
     </row>
     <row r="158">
@@ -2646,11 +2958,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C158" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.427</v>
+      </c>
       <c r="D158" t="n">
-        <v>1.314532407987897</v>
+        <v>1.389231245973795</v>
       </c>
     </row>
     <row r="159">
@@ -2660,11 +2974,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C159" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.444</v>
+      </c>
       <c r="D159" t="n">
-        <v>1.238487945492938</v>
+        <v>1.344405833556529</v>
       </c>
     </row>
     <row r="160">
@@ -2674,11 +2990,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C160" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.498</v>
+      </c>
       <c r="D160" t="n">
-        <v>1.40824565951907</v>
+        <v>1.464952564958764</v>
       </c>
     </row>
     <row r="161">
@@ -2688,11 +3006,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C161" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.463</v>
+      </c>
       <c r="D161" t="n">
-        <v>1.317283046995673</v>
+        <v>1.422632763678561</v>
       </c>
     </row>
     <row r="162">
@@ -2702,11 +3022,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C162" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.462</v>
+      </c>
       <c r="D162" t="n">
-        <v>1.309973766431133</v>
+        <v>1.421593085860016</v>
       </c>
     </row>
     <row r="163">
@@ -2716,11 +3038,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C163" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.49</v>
+      </c>
       <c r="D163" t="n">
-        <v>1.245141155488317</v>
+        <v>1.36607567738779</v>
       </c>
     </row>
     <row r="164">
@@ -2730,11 +3054,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C164" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.426</v>
+      </c>
       <c r="D164" t="n">
-        <v>1.255138922928109</v>
+        <v>1.335554768017479</v>
       </c>
     </row>
     <row r="165">
@@ -2744,11 +3070,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C165" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.34</v>
+      </c>
       <c r="D165" t="n">
-        <v>1.214282510595002</v>
+        <v>1.297272349932472</v>
       </c>
     </row>
     <row r="166">
@@ -2758,11 +3086,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C166" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.807</v>
+      </c>
       <c r="D166" t="n">
-        <v>1.834399652839129</v>
+        <v>1.865233960096861</v>
       </c>
     </row>
     <row r="167">
@@ -2772,11 +3102,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C167" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.736</v>
+      </c>
       <c r="D167" t="n">
-        <v>1.758724149865945</v>
+        <v>1.849408871295546</v>
       </c>
     </row>
     <row r="168">
@@ -2786,11 +3118,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C168" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.62</v>
+      </c>
       <c r="D168" t="n">
-        <v>1.555928804043881</v>
+        <v>1.612738842006729</v>
       </c>
     </row>
     <row r="169">
@@ -2800,11 +3134,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C169" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.559</v>
+      </c>
       <c r="D169" t="n">
-        <v>1.452144050789612</v>
+        <v>1.567077320022745</v>
       </c>
     </row>
     <row r="170">
@@ -2814,11 +3150,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C170" t="inlineStr"/>
+        <v>2022</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.655</v>
+      </c>
       <c r="D170" t="n">
-        <v>1.483636286595026</v>
+        <v>1.597878287936623</v>
       </c>
     </row>
     <row r="171">
@@ -2828,11 +3166,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C171" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.68</v>
+      </c>
       <c r="D171" t="n">
-        <v>1.415924309185894</v>
+        <v>1.539894028026199</v>
       </c>
     </row>
   </sheetData>
